--- a/data/trans_orig/Predimed_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Predimed_R-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>38362</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>27560</v>
+        <v>27716</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51259</v>
+        <v>51551</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.085647418966036</v>
+        <v>0.08564741896603603</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.06153098962379848</v>
+        <v>0.06188017313253333</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1144419968719753</v>
+        <v>0.1150941899978217</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>115</v>
@@ -762,19 +762,19 @@
         <v>78369</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64891</v>
+        <v>65529</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>93547</v>
+        <v>93177</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.135874937328804</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1125068335566887</v>
+        <v>0.1136136008111716</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1621905106302907</v>
+        <v>0.1615492879638665</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>154</v>
@@ -783,19 +783,19 @@
         <v>116731</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>99379</v>
+        <v>99847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>135386</v>
+        <v>137691</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1139195971485308</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0969856187283638</v>
+        <v>0.09744173969553858</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1321254597986868</v>
+        <v>0.134374707552067</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>409543</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>396646</v>
+        <v>396354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>420345</v>
+        <v>420189</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9143525810339639</v>
+        <v>0.9143525810339642</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8855580031280247</v>
+        <v>0.8849058100021784</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9384690103762017</v>
+        <v>0.9381198268674668</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>684</v>
@@ -833,19 +833,19 @@
         <v>498405</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>483227</v>
+        <v>483597</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>511883</v>
+        <v>511245</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8641250626711959</v>
+        <v>0.864125062671196</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.837809489369709</v>
+        <v>0.8384507120361336</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8874931664433109</v>
+        <v>0.8863863991888284</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1065</v>
@@ -854,19 +854,19 @@
         <v>907948</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>889293</v>
+        <v>886988</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>925300</v>
+        <v>924832</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8860804028514692</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8678745402013132</v>
+        <v>0.8656252924479331</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9030143812716361</v>
+        <v>0.9025582603044616</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>117783</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>98411</v>
+        <v>96826</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>142649</v>
+        <v>140112</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1337523027618124</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1117536798488517</v>
+        <v>0.1099544155554405</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1619905152373587</v>
+        <v>0.159108672863805</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>208</v>
@@ -979,19 +979,19 @@
         <v>136876</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>120158</v>
+        <v>119235</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>154387</v>
+        <v>154188</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1321868280320314</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1160413052242879</v>
+        <v>0.1151502591698244</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1490981289209073</v>
+        <v>0.148905798993326</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>326</v>
@@ -1000,19 +1000,19 @@
         <v>254659</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>227299</v>
+        <v>227154</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>284141</v>
+        <v>283886</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1329062987991796</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1186273379704194</v>
+        <v>0.1185512582972685</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1482930215441492</v>
+        <v>0.1481597451168607</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>762821</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>737955</v>
+        <v>740492</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>782193</v>
+        <v>783778</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8662476972381878</v>
+        <v>0.8662476972381877</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8380094847626411</v>
+        <v>0.840891327136195</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8882463201511483</v>
+        <v>0.8900455844445595</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1294</v>
@@ -1050,19 +1050,19 @@
         <v>898599</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>881088</v>
+        <v>881287</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>915317</v>
+        <v>916240</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8678131719679685</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8509018710790927</v>
+        <v>0.8510942010066741</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8839586947757124</v>
+        <v>0.8848497408301756</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2023</v>
@@ -1071,19 +1071,19 @@
         <v>1661420</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1631938</v>
+        <v>1632193</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1688780</v>
+        <v>1688925</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.8670937012008203</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8517069784558509</v>
+        <v>0.8518402548831394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8813726620295808</v>
+        <v>0.8814487417027315</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>151172</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>127389</v>
+        <v>127283</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>180034</v>
+        <v>178690</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1521346500224684</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1282008056143395</v>
+        <v>0.1280937054154491</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1811810213871299</v>
+        <v>0.179828235918738</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>247</v>
@@ -1196,19 +1196,19 @@
         <v>165521</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>146175</v>
+        <v>145568</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>187748</v>
+        <v>188692</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1646561245385456</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1454105612675803</v>
+        <v>0.1448075361978497</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1867668598883488</v>
+        <v>0.1877058186034218</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>395</v>
@@ -1217,19 +1217,19 @@
         <v>316693</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>285118</v>
+        <v>284875</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>348289</v>
+        <v>349543</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.158431669462076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1426357454936862</v>
+        <v>0.142513859401203</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1742381963263891</v>
+        <v>0.1748653093980309</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>842499</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>813637</v>
+        <v>814981</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>866282</v>
+        <v>866388</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8478653499775316</v>
+        <v>0.8478653499775317</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8188189786128701</v>
+        <v>0.8201717640812622</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8717991943856606</v>
+        <v>0.8719062945845512</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1205</v>
@@ -1267,19 +1267,19 @@
         <v>839734</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>817507</v>
+        <v>816563</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>859080</v>
+        <v>859687</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8353438754614545</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.813233140111651</v>
+        <v>0.8122941813965783</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8545894387324197</v>
+        <v>0.8551924638021502</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2041</v>
@@ -1288,19 +1288,19 @@
         <v>1682233</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1650637</v>
+        <v>1649383</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1713808</v>
+        <v>1714051</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8415683305379241</v>
+        <v>0.8415683305379239</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.825761803673611</v>
+        <v>0.8251346906019691</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8573642545063138</v>
+        <v>0.8574861405987972</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>260568</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>233962</v>
+        <v>231146</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>291963</v>
+        <v>295362</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2804334740881347</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2517989872740471</v>
+        <v>0.2487684163355711</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3142217614127795</v>
+        <v>0.3178796918735167</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>400</v>
@@ -1413,19 +1413,19 @@
         <v>271458</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>246766</v>
+        <v>248612</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>296090</v>
+        <v>294948</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3138215805011019</v>
+        <v>0.313821580501102</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2852751934601452</v>
+        <v>0.2874102950943831</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.342296736486023</v>
+        <v>0.3409763905645086</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>660</v>
@@ -1434,19 +1434,19 @@
         <v>532027</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>495471</v>
+        <v>494944</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>573575</v>
+        <v>573197</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.296530609623435</v>
+        <v>0.2965306096234349</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2761557799521145</v>
+        <v>0.2758620958886387</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3196880025559652</v>
+        <v>0.319476961353451</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>668594</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>637199</v>
+        <v>633800</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>695200</v>
+        <v>698016</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7195665259118653</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6857782385872203</v>
+        <v>0.6821203081264832</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7482010127259529</v>
+        <v>0.751231583664429</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>870</v>
@@ -1484,19 +1484,19 @@
         <v>593551</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>568919</v>
+        <v>570061</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>618243</v>
+        <v>616397</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.6861784194988981</v>
+        <v>0.6861784194988979</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6577032635139769</v>
+        <v>0.6590236094354915</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7147248065398547</v>
+        <v>0.7125897049056171</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1516</v>
@@ -1505,19 +1505,19 @@
         <v>1262145</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1220597</v>
+        <v>1220975</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1298701</v>
+        <v>1299228</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.703469390376565</v>
+        <v>0.7034693903765649</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6803119974440347</v>
+        <v>0.680523038646549</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7238442200478852</v>
+        <v>0.7241379041113613</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>567885</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>521010</v>
+        <v>523946</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>614886</v>
+        <v>616309</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.1746616233636141</v>
+        <v>0.1746616233636142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1602446625277365</v>
+        <v>0.161147650646988</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1891176915053122</v>
+        <v>0.1895551261446244</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>970</v>
@@ -1630,19 +1630,19 @@
         <v>652225</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>613786</v>
+        <v>612076</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>694820</v>
+        <v>691093</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1872858023356657</v>
+        <v>0.1872858023356658</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1762479247205636</v>
+        <v>0.175756873430224</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1995168331156155</v>
+        <v>0.19844650415918</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1535</v>
@@ -1651,19 +1651,19 @@
         <v>1220110</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1160820</v>
+        <v>1161957</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1288435</v>
+        <v>1296281</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1811904047957399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1723856346607406</v>
+        <v>0.1725545124624085</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1913369225166554</v>
+        <v>0.1925020871314199</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>2683457</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2636456</v>
+        <v>2635033</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2730332</v>
+        <v>2727396</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8253383766363857</v>
+        <v>0.8253383766363858</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8108823084946881</v>
+        <v>0.8104448738553756</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8397553374722638</v>
+        <v>0.8388523493530121</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4053</v>
@@ -1701,19 +1701,19 @@
         <v>2830288</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2787693</v>
+        <v>2791420</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2868727</v>
+        <v>2870437</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8127141976643343</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8004831668843847</v>
+        <v>0.8015534958408199</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8237520752794365</v>
+        <v>0.8242431265697761</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6645</v>
@@ -1722,19 +1722,19 @@
         <v>5513745</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5445420</v>
+        <v>5437574</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5573035</v>
+        <v>5571898</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.81880959520426</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8086630774833442</v>
+        <v>0.8074979128685803</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8276143653392591</v>
+        <v>0.8274454875375916</v>
       </c>
     </row>
     <row r="18">
